--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\OneDrive\Desktop\Studium\SS21\Seminar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\FAT-Seminar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E16575C9-6CB8-496B-908C-F5E8D91C5DFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE41810A-1A91-4BA7-BD14-70F3904C28AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C0A3B511-10A9-409F-B613-03E796592B5D}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{C0A3B511-10A9-409F-B613-03E796592B5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>06.05.2021-13.05.2021</t>
   </si>
@@ -91,6 +91,24 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Task 7</t>
+  </si>
+  <si>
+    <t>Create hedge portfolio from factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task 8 </t>
+  </si>
+  <si>
+    <t>Run CAPM regression on hedge portfolio to check for excess return</t>
+  </si>
+  <si>
+    <t>Task 9</t>
+  </si>
+  <si>
+    <t>Re-Create Table 3 and Table 4 from Hanauer, Lauterbach Paper</t>
   </si>
 </sst>
 </file>
@@ -442,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157C5407-56AD-4C61-97D8-5DA3DA00332C}">
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,6 +548,30 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\FAT-Seminar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/j.grimm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE41810A-1A91-4BA7-BD14-70F3904C28AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC5ECEC-EB8F-B840-A8E7-BAC244F44DEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{C0A3B511-10A9-409F-B613-03E796592B5D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{C0A3B511-10A9-409F-B613-03E796592B5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>06.05.2021-13.05.2021</t>
   </si>
@@ -109,16 +109,67 @@
   </si>
   <si>
     <t>Re-Create Table 3 and Table 4 from Hanauer, Lauterbach Paper</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Setorder market vaue to June</t>
+  </si>
+  <si>
+    <t>ongoig</t>
+  </si>
+  <si>
+    <t>Task 10</t>
+  </si>
+  <si>
+    <t>Task 11</t>
+  </si>
+  <si>
+    <t>Task 12</t>
+  </si>
+  <si>
+    <t>Task 13</t>
+  </si>
+  <si>
+    <t>Task 14</t>
+  </si>
+  <si>
+    <t>Task 15</t>
+  </si>
+  <si>
+    <t>Strategy: Mean Variance, min Vol, max sharpe, … to be informed and be able to aks questions on 20 May</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Begin in 1994</t>
+  </si>
+  <si>
+    <t>From Hanauer Mail</t>
+  </si>
+  <si>
+    <t>Cross-section regression</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,8 +195,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,18 +514,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157C5407-56AD-4C61-97D8-5DA3DA00332C}">
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>13</v>
       </c>
@@ -481,8 +536,11 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -492,8 +550,11 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -503,8 +564,11 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -514,8 +578,11 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -525,8 +592,11 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -536,8 +606,11 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -547,32 +620,81 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/j.grimm/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\OneDrive\Documenti\TUM\Courses &amp; Modules\Empirical Asset Pricing\FAT-Cases-in-Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC5ECEC-EB8F-B840-A8E7-BAC244F44DEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E8D12B-47CE-4BEC-9806-B658B1936AE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{C0A3B511-10A9-409F-B613-03E796592B5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C0A3B511-10A9-409F-B613-03E796592B5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>06.05.2021-13.05.2021</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Cross-section regression</t>
+  </si>
+  <si>
+    <t>Calculated using a for loop in Rolling_Window-36M_Beta.R (still need to add it in the 36_M_Beta.R script)</t>
   </si>
 </sst>
 </file>
@@ -517,16 +520,16 @@
   <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>13</v>
       </c>
@@ -540,7 +543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -554,7 +557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -564,11 +567,14 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -582,7 +588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -596,7 +602,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -610,7 +616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -624,7 +630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -635,7 +641,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -646,7 +652,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -654,7 +660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -662,7 +668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -670,7 +676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -678,17 +684,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
